--- a/tests/data_up_to_S2022T04/Torneo S2022T04 para publicar.xlsx
+++ b/tests/data_up_to_S2022T04/Torneo S2022T04 para publicar.xlsx
@@ -18,7 +18,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7miTlYuVeB/mKG5FD6CtDy626M7Nrg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mhnJRMMowaGmsO3UnDgpahaBTaAcA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -15873,35 +15873,35 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="D5" s="4">
-        <v>250.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D6" s="4">
-        <v>1000.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -15915,7 +15915,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -15929,16 +15929,16 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>279</v>
+        <v>181</v>
       </c>
       <c r="D9" s="4">
-        <v>750.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="10">
@@ -15949,58 +15949,58 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="D11" s="4">
-        <v>250.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="D12" s="4">
-        <v>250.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="D13" s="4">
-        <v>125.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="D14" s="4">
-        <v>125.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="15">
@@ -16019,7 +16019,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>42</v>
@@ -16033,35 +16033,35 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="D17" s="4">
-        <v>500.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D18" s="4">
-        <v>75.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>42</v>
@@ -16075,7 +16075,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>42</v>
@@ -16101,7 +16101,7 @@
         <v>75.0</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -16117,7 +16117,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>42</v>
@@ -16131,7 +16131,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -16145,16 +16145,16 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="D25" s="4">
-        <v>375.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -16165,63 +16165,63 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="D27" s="4">
-        <v>40.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="D28" s="4">
-        <v>40.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D29" s="4">
-        <v>40.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D30" s="4">
-        <v>40.0</v>
+        <v>125.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>95</v>
@@ -16235,7 +16235,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>95</v>
@@ -16249,7 +16249,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>95</v>
@@ -16277,90 +16277,100 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="D35" s="4">
-        <v>190.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="D36" s="4">
-        <v>250.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D37" s="4">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D38" s="4">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="D39" s="4">
-        <v>125.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="D40" s="4">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>
     <row r="45" ht="15.75" customHeight="1"/>
@@ -17321,6 +17331,8 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>

--- a/tests/data_up_to_S2022T04/Torneo S2022T04 para publicar.xlsx
+++ b/tests/data_up_to_S2022T04/Torneo S2022T04 para publicar.xlsx
@@ -1395,12 +1395,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Savino, Leandro</t>
+          <t>Colavini, Daniel</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Santo Tome</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Colavini, Daniel</t>
+          <t>Savino, Leandro</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Santo Tome</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>374 (-26)</t>
+          <t>374 (=)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Diaz, Benjamin</t>
+          <t>Almada, Pablo</t>
         </is>
       </c>
     </row>
@@ -1825,12 +1825,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>374 (=)</t>
+          <t>374 (-26)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Almada, Pablo</t>
+          <t>Diaz, Benjamin</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maili, Elias (1263)</t>
+          <t>Fontana, Fausto (1359)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-23</t>
+          <t>-119</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2253,22 +2253,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fontana, Fausto (1359)</t>
+          <t>Maili, Elias (1263)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-119</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maili, Elias (1263)</t>
+          <t>Figueroa, Axel (1240)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Figueroa, Axel (1240)</t>
+          <t>Maili, Elias (1263)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2463,12 +2463,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maili, Elias (1263)</t>
+          <t>Figueroa, Axel (1240)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2505,22 +2505,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nohara, Andres (1428)</t>
+          <t>Fontana, Fausto (1359)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2547,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Figueroa, Axel (1240)</t>
+          <t>Maili, Elias (1263)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>411</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2589,22 +2589,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fontana, Fausto (1359)</t>
+          <t>Nohara, Andres (1428)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>246</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3471,22 +3471,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ledesma, Jonas (422)</t>
+          <t>Bonelli, Marcos (1006)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3513,22 +3513,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bonelli, Marcos (1006)</t>
+          <t>Ledesma, Jonas (422)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>867</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3555,22 +3555,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Vigouroux, Santiago (511)</t>
+          <t>Figueroa, Axel (1240)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>-289</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Figueroa, Axel (1240)</t>
+          <t>Vigouroux, Santiago (511)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-289</t>
+          <t>440</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-42</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -3639,22 +3639,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Vigouroux, Manuel (493)</t>
+          <t>Vigouroux, Jorge (879)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3681,22 +3681,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Vigouroux, Jorge (879)</t>
+          <t>Vigouroux, Manuel (493)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>770</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4563,22 +4563,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Vigouroux, Manuel (493)</t>
+          <t>Acosta, Gaston (573)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>427</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4605,22 +4605,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Acosta, Gaston (573)</t>
+          <t>Vigouroux, Manuel (493)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4647,22 +4647,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Vetrano, Luca (821)</t>
+          <t>Diaz, Benjamin (400)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-409</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-56</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4689,22 +4689,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Diaz, Benjamin (400)</t>
+          <t>Vetrano, Luca (821)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>-409</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4773,22 +4773,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Vetrano, Luca (821)</t>
+          <t>Diaz, Benjamin (400)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>439</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-18</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4857,22 +4857,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Diaz, Benjamin (400)</t>
+          <t>Vetrano, Luca (821)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-18</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5299,14 +5299,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maili, Elias</t>
+          <t>Figueroa, Axel</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -5327,14 +5327,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Figueroa, Axel</t>
+          <t>Maili, Elias</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Maili, Elias</t>
+          <t>Figueroa, Axel</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -5411,14 +5411,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Figueroa, Axel</t>
+          <t>Fontana, Fausto</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
         <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -5439,14 +5439,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fontana, Fausto</t>
+          <t>Maili, Elias</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nohara, Andres</t>
+          <t>Maili, Elias</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Maili, Elias</t>
+          <t>Nohara, Andres</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gatti, Sebastian</t>
+          <t>Bonelli, Marcos</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bonelli, Marcos</t>
+          <t>Gatti, Sebastian</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -6251,14 +6251,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fernandez, Carlos</t>
+          <t>Boetti, Genaro</t>
         </is>
       </c>
       <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -6279,14 +6279,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Boetti, Genaro</t>
+          <t>Fernandez, Carlos</t>
         </is>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>3</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -6783,14 +6783,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Vigouroux, Jorge</t>
+          <t>Prettis, Juan</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -6811,14 +6811,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Vigouroux, Santiago</t>
+          <t>Vigouroux, Jorge</t>
         </is>
       </c>
       <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
         <v>3</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Prettis, Juan</t>
+          <t>Vigouroux, Santiago</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -6923,14 +6923,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Vigouroux, Manuel</t>
+          <t>Acosta, Gaston</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -6951,14 +6951,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Acosta, Gaston</t>
+          <t>Vigouroux, Manuel</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -6979,14 +6979,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Vetrano, Luca</t>
+          <t>Diaz, Benjamin</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7007,14 +7007,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Diaz, Benjamin</t>
+          <t>Uziel, Yuri</t>
         </is>
       </c>
       <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
         <v>3</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7035,14 +7035,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Uziel, Yuri</t>
+          <t>Vetrano, Luca</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -13337,12 +13337,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nowotny, Martin</t>
+          <t>Dupertuis, Gaston</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -13352,17 +13357,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dupertuis, Gaston</t>
+          <t>Nowotny, Martin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
     </row>
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>La Barba, Pablo</t>
+          <t>Aguirre, German</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -13452,7 +13452,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aguirre, German</t>
+          <t>La Barba, Pablo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -14052,7 +14052,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sueldo, Pablo</t>
+          <t>Sartor, Yemel</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Avellaneda</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ATMAR</t>
         </is>
       </c>
     </row>
@@ -14062,17 +14072,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sartor, Yemel</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Avellaneda</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>ATMAR</t>
+          <t>Sueldo, Pablo</t>
         </is>
       </c>
     </row>
@@ -14287,17 +14287,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Maerker, Shion</t>
+          <t>Becker, Fernando</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -14307,17 +14307,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Becker, Fernando</t>
+          <t>Maerker, Shion</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Parana</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -14362,17 +14362,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chiara, Lucio</t>
+          <t>Campos, Dario</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Parana</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>Atemeli</t>
         </is>
       </c>
     </row>
@@ -14382,17 +14382,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Campos, Dario</t>
+          <t>Chiara, Lucio</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Atemeli</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -14402,7 +14402,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lerch, Juan Carlos</t>
+          <t>Gimenez, Maximo</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -14412,7 +14412,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tiro Federal</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gimenez, Maximo</t>
+          <t>Lerch, Juan Carlos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>Tiro Federal</t>
         </is>
       </c>
     </row>
@@ -14782,12 +14782,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mendieta, Elias</t>
+          <t>Arrieta, Maximiliano</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Libertador San Martin</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -14797,17 +14802,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Badano, Pablo</t>
+          <t>Asenie, Santiago</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
     </row>
@@ -14817,12 +14817,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Asenie, Santiago</t>
+          <t>Badano, Pablo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -14852,17 +14857,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Presel, Raul</t>
+          <t>Mendieta, Elias</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Santa Fe</t>
         </is>
       </c>
     </row>
@@ -14872,17 +14872,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Arrieta, Maximiliano</t>
+          <t>Presel, Raul</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -15877,7 +15877,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Martinez, Dylan</t>
+          <t>Aguirre, Gabriel</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -15887,17 +15897,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Aguirre, Gabriel</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Martinez, Dylan</t>
         </is>
       </c>
     </row>
@@ -15977,17 +15977,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Werner, Graciela</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Rodriguez Alarcon Emiliano</t>
         </is>
       </c>
     </row>
@@ -15997,7 +15987,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Rodriguez Alarcon Emiliano</t>
+          <t>Werner, Graciela</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -16007,7 +16007,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Mir, Tomas</t>
+          <t>Javita, Luis</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Libertador San Martin</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -16027,17 +16037,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Javita, Luis</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Libertador San Martin</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>CRL</t>
+          <t>Mir, Tomas</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Michea, Ignacio</t>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Libertador San Martin</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -16172,17 +16182,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Libertador San Martin</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>CRL</t>
+          <t>Michea, Ignacio</t>
         </is>
       </c>
     </row>
@@ -16227,17 +16227,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Portillo, Lucas</t>
+          <t>Arrieta, Matias</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Esperanza</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ATME</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -16262,17 +16262,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Arrieta, Matias</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Libertador San Martin</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>CRL</t>
+          <t>Muller, Tomas</t>
         </is>
       </c>
     </row>
@@ -16282,7 +16272,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Muller, Tomas</t>
+          <t>Portillo, Lucas</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Esperanza</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>ATME</t>
         </is>
       </c>
     </row>
@@ -16342,17 +16342,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pillac, Juan Pablo</t>
+          <t>Comas, Javier</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Libertador San Martin</t>
+          <t>Parana</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>
@@ -16362,17 +16362,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Comas, Javier</t>
+          <t>Pillac, Juan Pablo</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Parana</t>
+          <t>Libertador San Martin</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Aspatem</t>
+          <t>CRL</t>
         </is>
       </c>
     </row>
@@ -16502,17 +16502,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Vergara, Gustavo</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Tiro Federal</t>
+          <t>Godano, Lucas</t>
         </is>
       </c>
     </row>
@@ -16522,7 +16512,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Godano, Lucas</t>
+          <t>Vergara, Gustavo</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Tiro Federal</t>
         </is>
       </c>
     </row>
@@ -16707,7 +16707,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Musuruana, Francisco</t>
+          <t>Escalante, Samuel</t>
         </is>
       </c>
     </row>
@@ -16717,7 +16717,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Escalante, Samuel</t>
+          <t>Musuruana, Francisco</t>
         </is>
       </c>
     </row>
@@ -16932,7 +16932,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ferrero, Alejandro</t>
+          <t>Antunez, Pablo</t>
         </is>
       </c>
     </row>
@@ -16942,7 +16942,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Antunez, Pablo</t>
+          <t>Ferrero, Alejandro</t>
         </is>
       </c>
     </row>
@@ -16962,7 +16962,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Velazquez, Pedro</t>
+          <t>Lell, Claudia</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Tiro Federal</t>
         </is>
       </c>
     </row>
@@ -16972,17 +16982,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Lell, Claudia</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Tiro Federal</t>
+          <t>Velazquez, Pedro</t>
         </is>
       </c>
     </row>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Bertoli, Maximiliano</t>
+          <t>Bertoli, Julian</t>
         </is>
       </c>
     </row>
@@ -17082,7 +17082,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Bertoli, Julian</t>
+          <t>Bertoli, Maximiliano</t>
         </is>
       </c>
     </row>
@@ -17092,17 +17092,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Seib, Silvia</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Parana</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Aspatem</t>
+          <t>Macor, Mateo</t>
         </is>
       </c>
     </row>
@@ -17112,7 +17102,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Macor, Mateo</t>
+          <t>Seib, Silvia</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Parana</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Aspatem</t>
         </is>
       </c>
     </row>

--- a/tests/data_up_to_S2022T04/Torneo S2022T04 para publicar.xlsx
+++ b/tests/data_up_to_S2022T04/Torneo S2022T04 para publicar.xlsx
@@ -1864,8 +1864,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5062,8 +5062,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7198,8 +7198,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1000 (T01) + 1000 (T02) + 1000 (T03)</t>
+          <t>1000 (T03) + 1000 (T02) + 1000 (T01)</t>
         </is>
       </c>
     </row>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>750 (T01) + 750 (T03)</t>
+          <t>750 (T03) + 750 (T01)</t>
         </is>
       </c>
     </row>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>250 (T01) + 250 (T03)</t>
+          <t>250 (T03) + 250 (T01)</t>
         </is>
       </c>
     </row>
@@ -7800,8 +7800,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>375 (T04) + 375 (T03) + 125 (T01) + 125 (T02)</t>
+          <t>375 (T04) + 375 (T03) + 125 (T02) + 125 (T01)</t>
         </is>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>250 (T01) + 250 (T02) + 125 (T04) + 125 (T03)</t>
+          <t>250 (T02) + 250 (T01) + 125 (T04) + 125 (T03)</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>250 (T03) + 75 (T01) + 75 (T02)</t>
+          <t>250 (T03) + 75 (T02) + 75 (T01)</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>125 (T01) + 125 (T02)</t>
+          <t>125 (T02) + 125 (T01)</t>
         </is>
       </c>
     </row>
@@ -8674,8 +8674,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>190 (T02) + 190 (T04)</t>
+          <t>190 (T04) + 190 (T02)</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>125 (T01) + 125 (T03) + 65 (T04) + 65 (T02)</t>
+          <t>125 (T03) + 125 (T01) + 65 (T04) + 65 (T02)</t>
         </is>
       </c>
     </row>
@@ -9048,7 +9048,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>65 (T02) + 65 (T03) + 65 (T01)</t>
+          <t>65 (T03) + 65 (T02) + 65 (T01)</t>
         </is>
       </c>
     </row>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40 (T03) + 40 (T04)</t>
+          <t>40 (T04) + 40 (T03)</t>
         </is>
       </c>
     </row>
@@ -9729,8 +9729,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10491,8 +10491,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
